--- a/biology/Botanique/Vandenboschia_rupestris/Vandenboschia_rupestris.xlsx
+++ b/biology/Botanique/Vandenboschia_rupestris/Vandenboschia_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vandenboschia rupestris est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce présente les caractéristiques suivantes :
 son rhizome est fin - de 0,7 à 1,2 mm de diamètre -, long, rampant, couvert de poils noirs ;
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Amérique du Sud : Bolivie, Brésil, Colombie, Pérou et Venezuela.
 Il s'agit d'une fougère principalement épiphyte des troncs d'arbre ou des talus humides des forêts pluviales.
@@ -579,13 +595,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vandenboschia rupestris appartient au sous-genre Lacosteopsis.
-Cette espèce est décrite une première fois en 1825 par Giuseppe Raddi sous le nom de Hymenophyllum rupestre[1]
-En 1859, Roelof Benjamin van den Bosch la déplace dans le genre Trichomanes : Trichomanes rupestris (Raddi) Bosch[2].
-En 1974, Conrad Vernon Morton tout en la citant dans sa présentation de la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes, ne la cite pas parmi les espèces représentatives de cette section[3].
-Enfin, en 2006, Atsushi Ebihara et Kunio Iwatsuki la placent dans le genre Vandenboschia sous-genre Lacosteopsis comme espèce représentative de ce sous-genre[4].
+Cette espèce est décrite une première fois en 1825 par Giuseppe Raddi sous le nom de Hymenophyllum rupestre
+En 1859, Roelof Benjamin van den Bosch la déplace dans le genre Trichomanes : Trichomanes rupestris (Raddi) Bosch.
+En 1974, Conrad Vernon Morton tout en la citant dans sa présentation de la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes, ne la cite pas parmi les espèces représentatives de cette section.
+Enfin, en 2006, Atsushi Ebihara et Kunio Iwatsuki la placent dans le genre Vandenboschia sous-genre Lacosteopsis comme espèce représentative de ce sous-genre.
 Deux variétés de Trichomanes rupestre ont été décrites sans être retenues actuellement :
 Trichomanes rupestre var. frondosum (Fée) Luetzelb. (1923) : voir Vandenboschia rupestris (Raddi) Ebihara &amp; K.Iwats. (synonyme : Trichomanes frondosum Fée)
 Trichomanes rupestre var. laetevirens (Fée) Luetzelb. (1923) : voir Vandenboschia radicans (Sw.) Copel. (synonyme : Trichomanes laetevirensFée)
